--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45152.38768518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45596.30496527778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45191</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>45257</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45964.38974537037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45777</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45553</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44342.94769675926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45799</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45894.67243055555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45958.42958333333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45631</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45960.63648148148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>45377.94984953704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44539</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44280.93891203704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45898.6357175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>45119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>45446.95140046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44553</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>45890.40740740741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45910.32309027778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>45964</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45968.53197916667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>45260</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>45926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>44852</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44298</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>45120</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>45827.413125</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>45726.55266203704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>45818.51263888889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>45922</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>45924.42099537037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>45935.34494212963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>45846.48820601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>45546</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>45646</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>46006</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>44525</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>45243.54211805556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>45726.65811342592</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>44309</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44495</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>44538</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>45761</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45478</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>45649</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>45356</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>45439.95087962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44727</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45903</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45902.4184375</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>45918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>45831.45141203704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>45922.83304398148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         <v>45922.81627314815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>45925.63604166666</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45832.32988425926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45925.34493055556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>45224.54791666667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>45846.44512731482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>45544</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>45873.67907407408</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>45098</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>45945</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>45939</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>45971.34482638889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45644.46938657408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>45995</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>46045.65673611111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>46049.57390046296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>46007.59918981481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>46008.55003472222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>45775.65873842593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>46053.92268518519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>45922.44846064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45434.45416666667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>45574.56923611111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>45625</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>45450</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>45631.7077199074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>45243.64162037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>45491.92774305555</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44866.94907407407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44281.64640046296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44293.93512731481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44463</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>44536</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>44531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>44309</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>44538</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         <v>44817.94975694444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>44333.92180555555</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>44747.94023148148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44417.94082175926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>44361</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44428</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44857.51459490741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44498</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44777</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>44350.87983796297</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>44816</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>44838.42710648148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44848</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>44582</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>44582</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>44839.62422453704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>44326.44082175926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>44362</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>44599</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>44481</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>44361</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>44502</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>44386</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>44489.92234953704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>44370</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>44453</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10503,7 +10503,7 @@
         <v>44538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>44543</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>44592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>44708</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>44742.94322916667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>44816</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>44811</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>44499</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44817.94969907407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>44582</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>44496</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>44238</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>44818</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>44590.4933912037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>44616</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44820</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>44503</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>44867.38328703704</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>44816.94665509259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>44886.59451388889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>44590.47773148148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>44873.41837962963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44538</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11968,7 +11968,7 @@
         <v>44538</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>44480</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44237</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44339.88760416667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44735.73266203704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44700.79659722222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>44361</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>44571</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>45273.60528935185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>44819</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>45688.35549768519</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>45601.41054398148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>45177</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>45440.92850694444</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>45478.52390046296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45532.37145833333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>45532.3909375</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45363.96973379629</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45265</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>44942</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45747.53148148148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45670</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13237,7 +13237,7 @@
         <v>44941</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>45642.57230324074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44984</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45363.04724537037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>44281</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>44683</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>45684.3259837963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>45775.57372685185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>45684.36634259259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>45523.57927083333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>45548.34413194445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45511.95188657408</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45350.42581018519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45350.4345949074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45418</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44281</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45583.4578125</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45219.3849537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>45600.69767361111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45677.49145833333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45254</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45425</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>44538</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>45320</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45180</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>45576.45633101852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>45264</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>44708</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44806.43287037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45414</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45167.3946412037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>45208</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>45771.4549537037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>45544</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44911.4128587963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>44895.61856481482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45356</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45467.41854166667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>44859</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45309.86796296296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>45204.39530092593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45345</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45799.34695601852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>45145</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44326</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>45379</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>45376</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45748</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>45748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>45748.57201388889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>45219</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>45467</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44792</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>45880</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>45377.23140046297</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>45800.71913194445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         <v>45884.34461805555</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44592</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>45572.65831018519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>45644.47315972222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
         <v>45215</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16831,7 +16831,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
         <v>45804.59178240741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>45090.67743055556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>45347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>45546</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>45804.34453703704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>45257</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45807.4705787037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>45553</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>45262</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17406,7 +17406,7 @@
         <v>45681.42721064815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>45183</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17520,7 +17520,7 @@
         <v>44977.66061342593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17577,7 +17577,7 @@
         <v>45769</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>45350</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>45797.51899305556</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>45764.41936342593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>45585.7653587963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>45805.57412037037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>44893.64318287037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>45379</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44531.92215277778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>45728.53216435185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>45811.63673611111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>45891.62828703703</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>45664.44930555556</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>45323</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>45890.42737268518</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18457,7 +18457,7 @@
         <v>45230</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>45546</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>45568.59442129629</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>45813.65408564815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>45895.31371527778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>45894.47574074074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>45895</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>45029.92474537037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>45894</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>45895.34462962963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>45895.32181712963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>45604.35761574074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>45894.47658564815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>45894.53157407408</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19270,7 +19270,7 @@
         <v>45586.63030092593</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>45894.47443287037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>45188.45032407407</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>45897</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>45574.57387731481</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>45896.41564814815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45896.42334490741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>45896.42896990741</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
         <v>45896.43145833333</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>45641.89890046296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>45897</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>45897.63584490741</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45688.35956018518</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>45898</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>45520</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>45460</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>45484</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>45898.65670138889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>45898.45086805556</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20383,7 +20383,7 @@
         <v>45898</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>45901.4696412037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>44890</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45818</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>45819.65800925926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>45323</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20735,7 +20735,7 @@
         <v>45819.67777777778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>45819.67783564814</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>45461.37427083333</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>45187.69538194445</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>45708.64608796296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>45324.43004629629</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45699.85717592593</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45902.37390046296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45902.36240740741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45797.47197916666</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45903.65680555555</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>45776</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45820.38512731482</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45880</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45820.56695601852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45609</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45236</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>45905.59465277778</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45905.59467592592</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>45904.63024305556</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44950.35271990741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45245</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45904.53165509259</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>45904.53173611111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>45904.57564814815</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45904.61912037037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45747.63582175926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>45904.53167824074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45904</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>45904.58739583333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>45904</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>45904.53163194445</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>45824.6791087963</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22671,7 +22671,7 @@
         <v>45825.6278587963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>45908.35325231482</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22790,7 +22790,7 @@
         <v>45909.63577546296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>45908.32333333333</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
         <v>45909.56523148148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>45641.89665509259</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>45642.36207175926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>45681</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>45911.40783564815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>45911.69847222222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>45910.31901620371</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>45827.43032407408</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>45911.40762731482</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>45911.34506944445</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>45911.34520833333</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>45911.40780092592</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23603,7 +23603,7 @@
         <v>45915.55196759259</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>45097.93810185185</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45827.56239583333</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>45915.44668981482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>45915.53155092592</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>45912.67767361111</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23965,7 +23965,7 @@
         <v>45503</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>45915.53157407408</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>45914</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45912.60663194444</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>45912.60855324074</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>45912.36547453704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>45912.36555555555</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45912</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45912</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45043.94283564815</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45912</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>45912.36561342593</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         <v>45559.51078703703</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>45827</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24783,7 +24783,7 @@
         <v>45827.59447916667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>45917.40671296296</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>45916.5984837963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>45827</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45830</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45916.45111111111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45917.65427083334</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44848</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45831.65704861111</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>45541.55353009259</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>45700.60403935185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45919.34480324074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>45096</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>45919.46903935185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
         <v>45287.40711805555</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25658,7 +25658,7 @@
         <v>44685</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>45574.57422453703</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>45574.57452546297</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25839,7 +25839,7 @@
         <v>45919.34473379629</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25901,7 +25901,7 @@
         <v>45919.34576388889</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44615</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45559.49592592593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45559.50427083333</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>45769.89828703704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>45919.35890046296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26248,7 +26248,7 @@
         <v>45188</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>45832.42759259259</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>45457</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>45922.65756944445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>45923</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>45922</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>45922.67793981481</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45635.63734953704</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45833.53407407407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45922.76864583333</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44756</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45924.34490740741</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45925.60002314814</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45925.60152777778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45925.65667824074</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45925.60075231481</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45925.34530092592</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>45924.34506944445</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45832.59581018519</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45925.56111111111</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45925.59945601852</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45924.55252314815</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45924.34458333333</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27594,7 +27594,7 @@
         <v>45924.34474537037</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27656,7 +27656,7 @@
         <v>45285.40332175926</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45924.60710648148</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45924.34524305556</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>45924</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>45925.34460648148</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>45924.61495370371</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28018,7 +28018,7 @@
         <v>45924.81440972222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>45834</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45926.34545138889</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45929.64570601852</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28261,7 +28261,7 @@
         <v>45926.40671296296</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28318,7 +28318,7 @@
         <v>45685</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28375,7 +28375,7 @@
         <v>45925.84547453704</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>45279</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>45618</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>45618.46251157407</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>45929.64083333333</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28665,7 +28665,7 @@
         <v>45926.34532407407</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45929.68081018519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45929.70978009259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45929.63853009259</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45926.34465277778</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>45926.34493055556</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
         <v>45926.3659375</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29089,7 +29089,7 @@
         <v>45929.72967592593</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29146,7 +29146,7 @@
         <v>45930.55292824074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29203,7 +29203,7 @@
         <v>45488.42760416667</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44355</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>45167.39181712963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44432</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>45932.34443287037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45334.3878125</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45244</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45244</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>45837.69155092593</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>45933.34452546296</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29793,7 +29793,7 @@
         <v>45840.59425925926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29850,7 +29850,7 @@
         <v>45932.57424768519</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29912,7 +29912,7 @@
         <v>45775</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44722.56501157407</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44368</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30093,7 +30093,7 @@
         <v>45934.87321759259</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30150,7 +30150,7 @@
         <v>45934.88195601852</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>45935.34542824074</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30269,7 +30269,7 @@
         <v>45935.59422453704</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         <v>45531.40653935185</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>45934.34480324074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30455,7 +30455,7 @@
         <v>45574.57420138889</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30517,7 +30517,7 @@
         <v>45574.57457175926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30579,7 +30579,7 @@
         <v>45935.34520833333</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30641,7 +30641,7 @@
         <v>44782</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30698,7 +30698,7 @@
         <v>45934.34547453704</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30760,7 +30760,7 @@
         <v>45935.34575231482</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>45936.61523148148</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>45462</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>45631.65880787037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>45938.36506944444</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>45564</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>45938.34552083333</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31169,7 +31169,7 @@
         <v>44370</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>45938.34530092592</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         <v>45244</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31350,7 +31350,7 @@
         <v>45840</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31407,7 +31407,7 @@
         <v>45681</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31464,7 +31464,7 @@
         <v>45700.61891203704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31521,7 +31521,7 @@
         <v>45842</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>45937.64141203704</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>45919</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>45942.49037037037</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31754,7 +31754,7 @@
         <v>45642.36554398148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31811,7 +31811,7 @@
         <v>45607</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31868,7 +31868,7 @@
         <v>45940.57060185185</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31930,7 +31930,7 @@
         <v>45940.34592592593</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         <v>45942.4903125</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32049,7 +32049,7 @@
         <v>45942.71923611111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>45760.61570601852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>45940.34598379629</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32225,7 +32225,7 @@
         <v>45940.36502314815</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32282,7 +32282,7 @@
         <v>45678.63983796296</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32339,7 +32339,7 @@
         <v>45940.55581018519</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>45945</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>45944.67363425926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32520,7 +32520,7 @@
         <v>45467</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>45783</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>45842</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>45688</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>45945.3653125</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32815,7 +32815,7 @@
         <v>45837</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32872,7 +32872,7 @@
         <v>45945.29070601852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32934,7 +32934,7 @@
         <v>45945.3859375</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32991,7 +32991,7 @@
         <v>45945.41836805556</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33048,7 +33048,7 @@
         <v>45945.39273148148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33105,7 +33105,7 @@
         <v>45945</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33162,7 +33162,7 @@
         <v>45945.36537037037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33219,7 +33219,7 @@
         <v>45849.46875</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33276,7 +33276,7 @@
         <v>45848.59751157407</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33338,7 +33338,7 @@
         <v>45946.67771990741</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33395,7 +33395,7 @@
         <v>45197</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33452,7 +33452,7 @@
         <v>45848</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33509,7 +33509,7 @@
         <v>45946</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33566,7 +33566,7 @@
         <v>45244</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>45848.41678240741</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
         <v>45848.79878472222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33742,7 +33742,7 @@
         <v>45849.34408564815</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>45848.80690972223</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33861,7 +33861,7 @@
         <v>45247</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33918,7 +33918,7 @@
         <v>45225</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33975,7 +33975,7 @@
         <v>45950.45288194445</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34032,7 +34032,7 @@
         <v>45949.69255787037</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34089,7 +34089,7 @@
         <v>45950.38770833334</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         <v>45855.34423611111</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34203,7 +34203,7 @@
         <v>44321</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34260,7 +34260,7 @@
         <v>45239</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         <v>45799.60884259259</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34374,7 +34374,7 @@
         <v>45828.40693287037</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         <v>45951.33339120371</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         <v>45573.70684027778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34550,7 +34550,7 @@
         <v>44383</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34607,7 +34607,7 @@
         <v>44596.92112268518</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44623</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34721,7 +34721,7 @@
         <v>44588</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34778,7 +34778,7 @@
         <v>44879</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34835,7 +34835,7 @@
         <v>45098</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44516</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44344</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44383</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>44383</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>44383</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44383</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>44383</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>44879.9275</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35353,7 +35353,7 @@
         <v>44775.92741898148</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>44741</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35467,7 +35467,7 @@
         <v>44741</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35524,7 +35524,7 @@
         <v>45953.72067129629</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>44687</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>44523</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45863.42761574074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>45862.554375</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35814,7 +35814,7 @@
         <v>45726.5940625</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>45769.64806712963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>45849.46329861111</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35985,7 +35985,7 @@
         <v>45544</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36042,7 +36042,7 @@
         <v>45281.434375</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36099,7 +36099,7 @@
         <v>45869.60490740741</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36161,7 +36161,7 @@
         <v>45952</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36218,7 +36218,7 @@
         <v>45636.60680555556</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>45954.46243055556</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>45957.65670138889</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>45954.65706018519</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
         <v>45957.65662037037</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36503,7 +36503,7 @@
         <v>45869.37787037037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
         <v>45955.34613425926</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36622,7 +36622,7 @@
         <v>45954.67841435185</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36679,7 +36679,7 @@
         <v>45955.34609953704</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36736,7 +36736,7 @@
         <v>45955.34616898148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36793,7 +36793,7 @@
         <v>45955.34633101852</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36850,7 +36850,7 @@
         <v>45956</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36912,7 +36912,7 @@
         <v>45523</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36969,7 +36969,7 @@
         <v>45954.67832175926</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         <v>45955</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37083,7 +37083,7 @@
         <v>45955.3462037037</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37140,7 +37140,7 @@
         <v>45955.34627314815</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         <v>45955.34628472223</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37254,7 +37254,7 @@
         <v>45955.34635416666</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37311,7 +37311,7 @@
         <v>45872.55440972222</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37368,7 +37368,7 @@
         <v>45653.38663194444</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37425,7 +37425,7 @@
         <v>45810.4502199074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37482,7 +37482,7 @@
         <v>45952</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37539,7 +37539,7 @@
         <v>45873.40009259259</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37596,7 +37596,7 @@
         <v>45237.4725462963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37653,7 +37653,7 @@
         <v>45956</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37715,7 +37715,7 @@
         <v>45954.34506944445</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37777,7 +37777,7 @@
         <v>45748.66990740741</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
         <v>45955.34586805556</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         <v>45955</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37948,7 +37948,7 @@
         <v>45955</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38005,7 +38005,7 @@
         <v>45956</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38067,7 +38067,7 @@
         <v>45954</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38124,7 +38124,7 @@
         <v>45954.65701388889</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38181,7 +38181,7 @@
         <v>45873</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38238,7 +38238,7 @@
         <v>45873.59333333333</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38295,7 +38295,7 @@
         <v>45872.58510416667</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38352,7 +38352,7 @@
         <v>45375</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38409,7 +38409,7 @@
         <v>45376</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         <v>45442.35251157408</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38523,7 +38523,7 @@
         <v>45959.65199074074</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
         <v>45869.598125</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>45098</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38709,7 +38709,7 @@
         <v>45237</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>45874.67835648148</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38828,7 +38828,7 @@
         <v>45874.66177083334</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38890,7 +38890,7 @@
         <v>45324.46291666666</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38952,7 +38952,7 @@
         <v>45958</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39009,7 +39009,7 @@
         <v>44339</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39066,7 +39066,7 @@
         <v>45959.68377314815</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
         <v>45958.63005787037</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39185,7 +39185,7 @@
         <v>45958.34296296296</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39247,7 +39247,7 @@
         <v>45958.36559027778</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39304,7 +39304,7 @@
         <v>45237.48104166667</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39361,7 +39361,7 @@
         <v>44874</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39418,7 +39418,7 @@
         <v>45960.52788194444</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         <v>45960.54111111111</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39532,7 +39532,7 @@
         <v>45960</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39589,7 +39589,7 @@
         <v>45393</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>44432</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39703,7 +39703,7 @@
         <v>44685</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39760,7 +39760,7 @@
         <v>45960.38133101852</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>45219.38791666667</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>45877.53163194445</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>45376.92693287037</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>45960.42349537037</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>45960</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>45880.61525462963</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40164,7 +40164,7 @@
         <v>45547.344375</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         <v>45334</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40283,7 +40283,7 @@
         <v>45180.96025462963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>45880.61523148148</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44824</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>45964.42778935185</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40516,7 +40516,7 @@
         <v>44608</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40573,7 +40573,7 @@
         <v>45965.35112268518</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40630,7 +40630,7 @@
         <v>45966.38028935185</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40687,7 +40687,7 @@
         <v>45552</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>45883.49185185185</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>45883.49172453704</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>45883.49179398148</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>45714.34454861111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>45966.33358796296</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>44917</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>45966.61532407408</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>45966.61511574074</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41215,7 +41215,7 @@
         <v>45642.34875</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41272,7 +41272,7 @@
         <v>45883.46922453704</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>45971.42768518518</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41386,7 +41386,7 @@
         <v>45971.54649305555</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>45971.58565972222</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41500,7 +41500,7 @@
         <v>45754.46898148148</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41557,7 +41557,7 @@
         <v>45968.64667824074</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41619,7 +41619,7 @@
         <v>45345</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41676,7 +41676,7 @@
         <v>45968.59075231481</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>45972.61929398148</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41795,7 +41795,7 @@
         <v>45553</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41852,7 +41852,7 @@
         <v>45973</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         <v>45973</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>45883.36557870371</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>45419</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>45972.58217592593</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42147,7 +42147,7 @@
         <v>45551</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42204,7 +42204,7 @@
         <v>45245</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45972.63435185186</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>44944.47784722222</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>45232.68149305556</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42437,7 +42437,7 @@
         <v>45974.32560185185</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42494,7 +42494,7 @@
         <v>44454</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42551,7 +42551,7 @@
         <v>45975.59459490741</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42608,7 +42608,7 @@
         <v>45478.92868055555</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42665,7 +42665,7 @@
         <v>45271.92641203704</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45975.61684027778</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42779,7 +42779,7 @@
         <v>45974.53537037037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45978.345</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45735</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45978</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45978</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>45881</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43126,7 +43126,7 @@
         <v>45573.71189814815</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43183,7 +43183,7 @@
         <v>45631.49189814815</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>45720</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43297,7 +43297,7 @@
         <v>45978.46653935185</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43354,7 +43354,7 @@
         <v>45021</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43411,7 +43411,7 @@
         <v>45642.53783564815</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         <v>45793</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43525,7 +43525,7 @@
         <v>44525</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>45981.53230324074</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43639,7 +43639,7 @@
         <v>45981.53223379629</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>45981</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43753,7 +43753,7 @@
         <v>45981.51106481482</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43810,7 +43810,7 @@
         <v>45980.62547453704</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>45574.47001157407</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>45980.88444444445</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>45985.53171296296</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>45419.92640046297</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>45985.36137731482</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>45139.60627314815</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44224,7 +44224,7 @@
         <v>45985.46179398148</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>45982.42932870371</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44338,7 +44338,7 @@
         <v>45982</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>45625.37511574074</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>45985.51115740741</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45985.53173611111</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45951</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45097.92392361111</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44685,7 +44685,7 @@
         <v>45987</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>45986.59315972222</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45265.59799768519</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45986.38614583333</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44918,7 +44918,7 @@
         <v>45596.31337962963</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44980,7 +44980,7 @@
         <v>45266.64538194444</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45037,7 +45037,7 @@
         <v>45106</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45094,7 +45094,7 @@
         <v>45264.56266203704</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45151,7 +45151,7 @@
         <v>45175.41883101852</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45208,7 +45208,7 @@
         <v>45988</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45265,7 +45265,7 @@
         <v>45989.61618055555</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45322,7 +45322,7 @@
         <v>45478.53690972222</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         <v>45239</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45701</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45747.63579861111</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>45989</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45989.31907407408</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45679,7 +45679,7 @@
         <v>45989.53226851852</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45736,7 +45736,7 @@
         <v>45988</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45793,7 +45793,7 @@
         <v>45989</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45850,7 +45850,7 @@
         <v>45992.65481481481</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45912,7 +45912,7 @@
         <v>45992</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45974,7 +45974,7 @@
         <v>45992.58547453704</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46031,7 +46031,7 @@
         <v>44656</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>44550</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46145,7 +46145,7 @@
         <v>45993</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46207,7 +46207,7 @@
         <v>45308</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46264,7 +46264,7 @@
         <v>45478.54922453704</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46321,7 +46321,7 @@
         <v>45478.55758101852</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46378,7 +46378,7 @@
         <v>45695.62141203704</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46440,7 +46440,7 @@
         <v>45029</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46497,7 +46497,7 @@
         <v>46036.38759259259</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46554,7 +46554,7 @@
         <v>46036.41863425926</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46611,7 +46611,7 @@
         <v>46036.39594907407</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46668,7 +46668,7 @@
         <v>46036.37460648148</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46725,7 +46725,7 @@
         <v>46036.38172453704</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46782,7 +46782,7 @@
         <v>46036.39217592592</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46839,7 +46839,7 @@
         <v>45993.93607638889</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46896,7 +46896,7 @@
         <v>45993.94271990741</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46953,7 +46953,7 @@
         <v>45035.92623842593</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47010,7 +47010,7 @@
         <v>45035</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47072,7 +47072,7 @@
         <v>46036.39403935185</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47129,7 +47129,7 @@
         <v>45574.44518518518</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47191,7 +47191,7 @@
         <v>45995.49049768518</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47248,7 +47248,7 @@
         <v>45620</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47305,7 +47305,7 @@
         <v>45188</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47367,7 +47367,7 @@
         <v>45478.54375</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47424,7 +47424,7 @@
         <v>45995.49016203704</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47481,7 +47481,7 @@
         <v>45995.4903587963</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47538,7 +47538,7 @@
         <v>45705</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47595,7 +47595,7 @@
         <v>45994.55259259259</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47652,7 +47652,7 @@
         <v>45742</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47709,7 +47709,7 @@
         <v>45741</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47766,7 +47766,7 @@
         <v>45993.89900462963</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47823,7 +47823,7 @@
         <v>45995.49040509259</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47880,7 +47880,7 @@
         <v>44280.9359375</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47942,7 +47942,7 @@
         <v>45996.39519675926</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47999,7 +47999,7 @@
         <v>45996.40296296297</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48056,7 +48056,7 @@
         <v>44761</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48113,7 +48113,7 @@
         <v>45999</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48170,7 +48170,7 @@
         <v>45726.83957175926</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48227,7 +48227,7 @@
         <v>45356.9645949074</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48284,7 +48284,7 @@
         <v>45160.30193287037</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48346,7 +48346,7 @@
         <v>45129.43409722222</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         <v>45541</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48460,7 +48460,7 @@
         <v>46038</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48517,7 +48517,7 @@
         <v>45278.52131944444</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48574,7 +48574,7 @@
         <v>45999.43782407408</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48631,7 +48631,7 @@
         <v>46034.40601851852</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48688,7 +48688,7 @@
         <v>45602.42299768519</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>45618.47974537037</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48802,7 +48802,7 @@
         <v>46038</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48859,7 +48859,7 @@
         <v>45747.63590277778</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48916,7 +48916,7 @@
         <v>46042.57099537037</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48973,7 +48973,7 @@
         <v>46042.57371527778</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49030,7 +49030,7 @@
         <v>44403.92158564815</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49087,7 +49087,7 @@
         <v>46031.5231712963</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49144,7 +49144,7 @@
         <v>45644.38747685185</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49201,7 +49201,7 @@
         <v>46042.57369212963</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49258,7 +49258,7 @@
         <v>45677.53295138889</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49315,7 +49315,7 @@
         <v>46043.58481481481</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49372,7 +49372,7 @@
         <v>45749</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49429,7 +49429,7 @@
         <v>45952</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49486,7 +49486,7 @@
         <v>46042.56331018519</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49543,7 +49543,7 @@
         <v>46042.56798611111</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49600,7 +49600,7 @@
         <v>46042.62847222222</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49657,7 +49657,7 @@
         <v>45558.34508101852</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49719,7 +49719,7 @@
         <v>44960.59099537037</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49776,7 +49776,7 @@
         <v>46000</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49833,7 +49833,7 @@
         <v>46043.60310185186</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49890,7 +49890,7 @@
         <v>46042.67135416667</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49947,7 +49947,7 @@
         <v>46002</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50009,7 +50009,7 @@
         <v>45618.9441087963</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         <v>45728.55405092592</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50128,7 +50128,7 @@
         <v>45691.64054398148</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50190,7 +50190,7 @@
         <v>45664.47244212963</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50247,7 +50247,7 @@
         <v>46003</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50309,7 +50309,7 @@
         <v>46044.53945601852</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50366,7 +50366,7 @@
         <v>46045.44854166666</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>46045.53174768519</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50490,7 +50490,7 @@
         <v>46044.54421296297</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>46002.55417824074</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>45688.35248842592</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50671,7 +50671,7 @@
         <v>46049.57388888889</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50728,7 +50728,7 @@
         <v>46041</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50785,7 +50785,7 @@
         <v>45434</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>46006</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50899,7 +50899,7 @@
         <v>46048.63616898148</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50956,7 +50956,7 @@
         <v>46048.64174768519</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51013,7 +51013,7 @@
         <v>46006.55324074074</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51070,7 +51070,7 @@
         <v>46006.59469907408</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51127,7 +51127,7 @@
         <v>46006.63680555556</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51184,7 +51184,7 @@
         <v>46006</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51241,7 +51241,7 @@
         <v>46006</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51298,7 +51298,7 @@
         <v>46048.61850694445</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         <v>46006.58561342592</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51412,7 +51412,7 @@
         <v>46006</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51469,7 +51469,7 @@
         <v>46048.57982638889</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51526,7 +51526,7 @@
         <v>46048.63378472222</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51583,7 +51583,7 @@
         <v>46006.65425925926</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51640,7 +51640,7 @@
         <v>46006</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51697,7 +51697,7 @@
         <v>46006</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51759,7 +51759,7 @@
         <v>45605.82144675926</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51816,7 +51816,7 @@
         <v>45202.69947916667</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51878,7 +51878,7 @@
         <v>45772.61418981481</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51935,7 +51935,7 @@
         <v>45556.40655092592</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51997,7 +51997,7 @@
         <v>46008</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52059,7 +52059,7 @@
         <v>46050</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52116,7 +52116,7 @@
         <v>45930.55295138889</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         <v>45924</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52230,7 +52230,7 @@
         <v>45264</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52287,7 +52287,7 @@
         <v>44529</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52344,7 +52344,7 @@
         <v>46051.40046296296</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52401,7 +52401,7 @@
         <v>46051.5984375</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52458,7 +52458,7 @@
         <v>45215</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52515,7 +52515,7 @@
         <v>45706.56214120371</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52577,7 +52577,7 @@
         <v>46008.45466435186</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52634,7 +52634,7 @@
         <v>46050.58539351852</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52691,7 +52691,7 @@
         <v>45427.36417824074</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52748,7 +52748,7 @@
         <v>45260</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52805,7 +52805,7 @@
         <v>46008</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52867,7 +52867,7 @@
         <v>46008.55251157407</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52924,7 +52924,7 @@
         <v>45741.74234953704</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52981,7 +52981,7 @@
         <v>46051.39359953703</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53038,7 +53038,7 @@
         <v>45202</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53095,7 +53095,7 @@
         <v>44929.92539351852</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53152,7 +53152,7 @@
         <v>44929.92534722222</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53209,7 +53209,7 @@
         <v>45926</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53266,7 +53266,7 @@
         <v>45926</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53323,7 +53323,7 @@
         <v>45537</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53385,7 +53385,7 @@
         <v>45644.54944444444</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53442,7 +53442,7 @@
         <v>46010.39222222222</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53499,7 +53499,7 @@
         <v>46013.63587962963</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53556,7 +53556,7 @@
         <v>46010.40876157407</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         <v>44285</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53675,7 +53675,7 @@
         <v>46055.42761574074</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53732,7 +53732,7 @@
         <v>45926</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53789,7 +53789,7 @@
         <v>45584.99240740741</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53846,7 +53846,7 @@
         <v>45585.00625</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45586.39534722222</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>46055.38869212963</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45617.37787037037</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45526.5687962963</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54136,7 +54136,7 @@
         <v>45601.59634259259</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54193,7 +54193,7 @@
         <v>46013.63590277778</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54250,7 +54250,7 @@
         <v>46013.34729166667</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         <v>46055.4275462963</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54364,7 +54364,7 @@
         <v>45687.83862268519</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54421,7 +54421,7 @@
         <v>45484.94283564815</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54483,7 +54483,7 @@
         <v>46036</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54540,7 +54540,7 @@
         <v>45114</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54597,7 +54597,7 @@
         <v>46057.49533564815</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54654,7 +54654,7 @@
         <v>46057.63611111111</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54711,7 +54711,7 @@
         <v>45015</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54773,7 +54773,7 @@
         <v>45553.46583333334</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54830,7 +54830,7 @@
         <v>45936.44825231482</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54887,7 +54887,7 @@
         <v>45890</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54944,7 +54944,7 @@
         <v>45285.40947916666</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55001,7 +55001,7 @@
         <v>45243.54659722222</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55063,7 +55063,7 @@
         <v>45243.57018518518</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         <v>45922.53164351852</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55182,7 +55182,7 @@
         <v>45916.34553240741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55239,7 +55239,7 @@
         <v>45938.59431712963</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55296,7 +55296,7 @@
         <v>44405.61335648148</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55358,7 +55358,7 @@
         <v>44817.83398148148</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55415,7 +55415,7 @@
         <v>44817.83875</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55472,7 +55472,7 @@
         <v>46058.3653125</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55529,7 +55529,7 @@
         <v>45936.42798611111</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         <v>45937.34538194445</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55643,7 +55643,7 @@
         <v>45951.38586805556</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55700,7 +55700,7 @@
         <v>45951.38597222222</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -55757,7 +55757,7 @@
         <v>45951.3860300926</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>45986.42760416667</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>45987</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55928,7 +55928,7 @@
         <v>46058.42805555555</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55985,7 +55985,7 @@
         <v>46041</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56042,7 +56042,7 @@
         <v>45936.4080787037</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56099,7 +56099,7 @@
         <v>45936.44833333333</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56156,7 +56156,7 @@
         <v>45915.55274305555</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56213,7 +56213,7 @@
         <v>45946.38613425926</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56270,7 +56270,7 @@
         <v>44539</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56332,7 +56332,7 @@
         <v>45936.40799768519</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56389,7 +56389,7 @@
         <v>45936.4278587963</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56446,7 +56446,7 @@
         <v>45936.42791666667</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56503,7 +56503,7 @@
         <v>45936.44826388889</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56560,7 +56560,7 @@
         <v>45582.44790509259</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56622,7 +56622,7 @@
         <v>45120</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56679,7 +56679,7 @@
         <v>45120</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -56736,7 +56736,7 @@
         <v>44468</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56793,7 +56793,7 @@
         <v>45578</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56850,7 +56850,7 @@
         <v>44454</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56907,7 +56907,7 @@
         <v>45546</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56969,7 +56969,7 @@
         <v>44984</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57026,7 +57026,7 @@
         <v>45681.44248842593</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57083,7 +57083,7 @@
         <v>45631</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57140,7 +57140,7 @@
         <v>45188</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57202,7 +57202,7 @@
         <v>45440.48613425926</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         <v>45419.43320601852</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57316,7 +57316,7 @@
         <v>45419.43966435185</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57373,7 +57373,7 @@
         <v>45545</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57435,7 +57435,7 @@
         <v>45545.34473379629</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57497,7 +57497,7 @@
         <v>45688.68434027778</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57554,7 +57554,7 @@
         <v>45574.44390046296</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57616,7 +57616,7 @@
         <v>45574.45082175926</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -57678,7 +57678,7 @@
         <v>45574.45609953703</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -57740,7 +57740,7 @@
         <v>45579.58488425926</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -57797,7 +57797,7 @@
         <v>45579</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57854,7 +57854,7 @@
         <v>45579.59833333334</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57911,7 +57911,7 @@
         <v>45579.60060185185</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57968,7 +57968,7 @@
         <v>45733.65648148148</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58025,7 +58025,7 @@
         <v>45222</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58082,7 +58082,7 @@
         <v>44685</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58139,7 +58139,7 @@
         <v>45586.41365740741</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58201,7 +58201,7 @@
         <v>45505.96447916667</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58263,7 +58263,7 @@
         <v>45677</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58320,7 +58320,7 @@
         <v>45726.66239583334</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58377,7 +58377,7 @@
         <v>45435</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58434,7 +58434,7 @@
         <v>45630.66138888889</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58491,7 +58491,7 @@
         <v>45600</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -58553,7 +58553,7 @@
         <v>45239.54928240741</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -58610,7 +58610,7 @@
         <v>45400.83166666667</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -58667,7 +58667,7 @@
         <v>44942</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -58724,7 +58724,7 @@
         <v>44813</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -58781,7 +58781,7 @@
         <v>45504.41072916667</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -58838,7 +58838,7 @@
         <v>45677.7190625</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58900,7 +58900,7 @@
         <v>45119.70763888889</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58962,7 +58962,7 @@
         <v>45559.4872337963</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59019,7 +59019,7 @@
         <v>45593</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59076,7 +59076,7 @@
         <v>45117.95149305555</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59138,7 +59138,7 @@
         <v>44890</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59195,7 +59195,7 @@
         <v>45736</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59252,7 +59252,7 @@
         <v>45401.92539351852</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59309,7 +59309,7 @@
         <v>45273.58069444444</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59366,7 +59366,7 @@
         <v>45187</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59423,7 +59423,7 @@
         <v>45491.92767361111</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59480,7 +59480,7 @@
         <v>44369.93850694445</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -59542,7 +59542,7 @@
         <v>45245</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -59599,7 +59599,7 @@
         <v>45527.33951388889</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -59661,7 +59661,7 @@
         <v>45527</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -59723,7 +59723,7 @@
         <v>45259.92872685185</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -59780,7 +59780,7 @@
         <v>45098</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -59837,7 +59837,7 @@
         <v>45639.39559027777</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59894,7 +59894,7 @@
         <v>45239</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59951,7 +59951,7 @@
         <v>45559.4780787037</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60008,7 +60008,7 @@
         <v>45370</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60065,7 +60065,7 @@
         <v>45664.58152777778</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60122,7 +60122,7 @@
         <v>45664</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60179,7 +60179,7 @@
         <v>45603.35820601852</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60236,7 +60236,7 @@
         <v>45708</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60293,7 +60293,7 @@
         <v>44889</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         <v>44785</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60412,7 +60412,7 @@
         <v>45211.33572916667</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -60469,7 +60469,7 @@
         <v>45167</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -60531,7 +60531,7 @@
         <v>45090.92510416666</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -60588,7 +60588,7 @@
         <v>45586.63260416667</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -60650,7 +60650,7 @@
         <v>45043.66952546296</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -60707,7 +60707,7 @@
         <v>45607.3625462963</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -60764,7 +60764,7 @@
         <v>45125</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -60821,7 +60821,7 @@
         <v>45125</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -60878,7 +60878,7 @@
         <v>45323</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60935,7 +60935,7 @@
         <v>45323</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60997,7 +60997,7 @@
         <v>45548</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -61054,7 +61054,7 @@
         <v>44888</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -61111,7 +61111,7 @@
         <v>45478.53486111111</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -61168,7 +61168,7 @@
         <v>45478.54910879629</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -61225,7 +61225,7 @@
         <v>44622</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -61282,7 +61282,7 @@
         <v>45558</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -61339,7 +61339,7 @@
         <v>45566.29878472222</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -61401,7 +61401,7 @@
         <v>44942</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -61458,7 +61458,7 @@
         <v>45420</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -61515,7 +61515,7 @@
         <v>45610</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -61577,7 +61577,7 @@
         <v>45140</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -61639,7 +61639,7 @@
         <v>45218.52489583333</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -61701,7 +61701,7 @@
         <v>45627.84545138889</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -61758,7 +61758,7 @@
         <v>44658</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -61815,7 +61815,7 @@
         <v>45176</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -61872,7 +61872,7 @@
         <v>45273</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61929,7 +61929,7 @@
         <v>44874</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61991,7 +61991,7 @@
         <v>45238.92677083334</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -62048,7 +62048,7 @@
         <v>44971</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -62105,7 +62105,7 @@
         <v>44708</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -62162,7 +62162,7 @@
         <v>45596</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -62224,7 +62224,7 @@
         <v>45512.96141203704</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -62286,7 +62286,7 @@
         <v>44447</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -62348,7 +62348,7 @@
         <v>45572.63810185185</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -62405,7 +62405,7 @@
         <v>45617.60194444445</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -62467,7 +62467,7 @@
         <v>44907.52800925926</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -62524,7 +62524,7 @@
         <v>45229</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -62586,7 +62586,7 @@
         <v>45091.44225694444</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -62643,7 +62643,7 @@
         <v>45273.63354166667</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -62700,7 +62700,7 @@
         <v>45232.56853009259</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -62762,7 +62762,7 @@
         <v>45331</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -62819,7 +62819,7 @@
         <v>45741.75050925926</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -62876,7 +62876,7 @@
         <v>45741.76587962963</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -62933,7 +62933,7 @@
         <v>45312</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -62990,7 +62990,7 @@
         <v>45316</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -63047,7 +63047,7 @@
         <v>45244</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -63104,7 +63104,7 @@
         <v>45056.93006944445</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -63161,7 +63161,7 @@
         <v>45056</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -63218,7 +63218,7 @@
         <v>44813</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -63275,7 +63275,7 @@
         <v>45525</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -63337,7 +63337,7 @@
         <v>45251</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -63394,7 +63394,7 @@
         <v>45708.46348379629</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         <v>45254</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -63508,7 +63508,7 @@
         <v>45565.67741898148</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -63570,7 +63570,7 @@
         <v>44454</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -63627,7 +63627,7 @@
         <v>45646.50115740741</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -63684,7 +63684,7 @@
         <v>44972.32969907407</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -63741,7 +63741,7 @@
         <v>45687</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -63798,7 +63798,7 @@
         <v>45687.82303240741</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -63855,7 +63855,7 @@
         <v>45755.34925925926</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -63912,7 +63912,7 @@
         <v>44375.93804398148</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -63974,7 +63974,7 @@
         <v>44377.92153935185</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -64031,7 +64031,7 @@
         <v>45518</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -64088,7 +64088,7 @@
         <v>44817.94883101852</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -64150,7 +64150,7 @@
         <v>45138</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -64207,7 +64207,7 @@
         <v>45028</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -64264,7 +64264,7 @@
         <v>45177.40446759259</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -64321,7 +64321,7 @@
         <v>45776.3900462963</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -64378,7 +64378,7 @@
         <v>45776.43038194445</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -64435,7 +64435,7 @@
         <v>45776.38480324074</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -64492,7 +64492,7 @@
         <v>45405.96737268518</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -64549,7 +64549,7 @@
         <v>45434.44953703704</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -64606,7 +64606,7 @@
         <v>45357.96129629629</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -64663,7 +64663,7 @@
         <v>45782.54247685185</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -64720,7 +64720,7 @@
         <v>45782.5971412037</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -64777,7 +64777,7 @@
         <v>45782.60648148148</v>
       </c>
       <c r="C1055" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -64834,7 +64834,7 @@
         <v>45782.66539351852</v>
       </c>
       <c r="C1056" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         <v>45783.34435185185</v>
       </c>
       <c r="C1057" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -64953,7 +64953,7 @@
         <v>45090</v>
       </c>
       <c r="C1058" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -65010,7 +65010,7 @@
         <v>45462</v>
       </c>
       <c r="C1059" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -65067,7 +65067,7 @@
         <v>45110</v>
       </c>
       <c r="C1060" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -65124,7 +65124,7 @@
         <v>45315</v>
       </c>
       <c r="C1061" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -65181,7 +65181,7 @@
         <v>45315.49657407407</v>
       </c>
       <c r="C1062" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -65238,7 +65238,7 @@
         <v>45789</v>
       </c>
       <c r="C1063" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -65295,7 +65295,7 @@
         <v>45491.92782407408</v>
       </c>
       <c r="C1064" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -65352,7 +65352,7 @@
         <v>45701.4969212963</v>
       </c>
       <c r="C1065" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -65409,7 +65409,7 @@
         <v>45790</v>
       </c>
       <c r="C1066" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -65466,7 +65466,7 @@
         <v>45790</v>
       </c>
       <c r="C1067" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -65523,7 +65523,7 @@
         <v>45791</v>
       </c>
       <c r="C1068" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -65580,7 +65580,7 @@
         <v>45791.40768518519</v>
       </c>
       <c r="C1069" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -65637,7 +65637,7 @@
         <v>45141</v>
       </c>
       <c r="C1070" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -65694,7 +65694,7 @@
         <v>45790.65756944445</v>
       </c>
       <c r="C1071" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -65751,7 +65751,7 @@
         <v>44795</v>
       </c>
       <c r="C1072" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -65808,7 +65808,7 @@
         <v>44361</v>
       </c>
       <c r="C1073" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -65865,7 +65865,7 @@
         <v>45797.48444444445</v>
       </c>
       <c r="C1074" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -65922,7 +65922,7 @@
         <v>45219</v>
       </c>
       <c r="C1075" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -65979,7 +65979,7 @@
         <v>45313</v>
       </c>
       <c r="C1076" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -66036,7 +66036,7 @@
         <v>45631.71248842592</v>
       </c>
       <c r="C1077" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -66093,7 +66093,7 @@
         <v>45230</v>
       </c>
       <c r="C1078" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -66150,7 +66150,7 @@
         <v>44538</v>
       </c>
       <c r="C1079" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -66207,7 +66207,7 @@
         <v>45797.48927083334</v>
       </c>
       <c r="C1080" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -66264,7 +66264,7 @@
         <v>45796.3506712963</v>
       </c>
       <c r="C1081" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -66321,7 +66321,7 @@
         <v>45797.46248842592</v>
       </c>
       <c r="C1082" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>

--- a/Översikt PITEÅ.xlsx
+++ b/Översikt PITEÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45152.38768518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45596.30496527778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45191</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>45257</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>45964.38974537037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45777</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>45553</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>44342.94769675926</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         <v>45799</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45894.67243055555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45958.42958333333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45631</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45960.63648148148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>45377.94984953704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44539</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44280.93891203704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45898.6357175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>45119</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>45446.95140046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>44553</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>45890.40740740741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>45910.32309027778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>45964</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45968.53197916667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>45260</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>45926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>44852</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44298</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44525</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         <v>45120</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>45818.51263888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>45726.55266203704</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         <v>45827.413125</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>45846.48820601852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>45546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>45922</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>45924.42099537037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>45935.34494212963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>45646</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>46006</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>45924</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>44525</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>45243.54211805556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>45726.65811342592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>44309</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>44495</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>44538</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>44342</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>45761</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>45478</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>45649</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>45439.95087962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>44727</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>45831.45141203704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45832.32988425926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45903</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>45902.4184375</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>45846.44512731482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>45224.54791666667</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>45918</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>45922.83304398148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45922.81627314815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>45925.63604166666</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45544</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>45925.34493055556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45873.67907407408</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>45098</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>45945</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>45971.34482638889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         <v>45644.46938657408</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>45995</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>46045.65673611111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>46049.57390046296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>46007.59918981481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>45775.65873842593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
         <v>46008.55003472222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>46053.92268518519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>45434.45416666667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>45922.44846064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>46064.4640625</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>46064.44733796296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>46064.42334490741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>45574.56923611111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>46050</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>45939</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>45625</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>45450</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45631.7077199074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>45243.64162037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>45491.92774305555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>45356</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>44866.94907407407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>44281.64640046296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>44293.93512731481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44463</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>44536</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>44309</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>44538</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>44817.94975694444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>44747.94023148148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>44333.92180555555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>44417.94082175926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         <v>44361</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>44428</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>44498</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>44857.51459490741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>44777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44350.87983796297</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44816</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44838.42710648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44848</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>44839.62422453704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>44582</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10317,7 +10317,7 @@
         <v>44582</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10374,7 +10374,7 @@
         <v>44326.44082175926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44362</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>44599</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>44481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>44386</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10659,7 +10659,7 @@
         <v>44361</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         <v>44502</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>44489.92234953704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10830,7 +10830,7 @@
         <v>44370</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>44538</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44453</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44543</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44592</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>44708</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>44742.94322916667</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44816</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44811</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11358,7 +11358,7 @@
         <v>44499</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>44817.94969907407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44582</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44257</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44496</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44818</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44590.4933912037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44616</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>44463</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>44820</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>44503</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>44816.94665509259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44867.38328703704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>44886.59451388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>44590.47773148148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>44873.41837962963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>44538</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>44538</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>44480</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>44339.88760416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         <v>44735.73266203704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>44700.79659722222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44361</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>44571</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>44819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>45273.60528935185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>45688.35549768519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45601.41054398148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45363.96973379629</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45478.52390046296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>45177</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>44942</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>45532.37145833333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>45532.3909375</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45440.92850694444</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>45265</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>44941</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>45747.53148148148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>45684.3259837963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>45684.36634259259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>45363.04724537037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44281</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44984</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44683</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>45775.57372685185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>45670</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>45642.57230324074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>45523.57927083333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>45548.34413194445</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>45511.95188657408</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>45418</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>45350.42581018519</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>45350.4345949074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44281</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>45583.4578125</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>45219.3849537037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>45600.69767361111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45677.49145833333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45254</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>45425</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>44538</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45320</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>45180</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>44708</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>45264</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>45576.45633101852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>44806.43287037037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>45414</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>45167.3946412037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>44895.61856481482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>45544</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44911.4128587963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>45208</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>45356</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45771.4549537037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>45467.41854166667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44859</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>45309.86796296296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>45345</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>45145</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>45110</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>45204.39530092593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>45376</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>45748</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>45748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>45748.57201388889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44792</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>45219</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>45644.47315972222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>45215</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45090.67743055556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>45546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>45183</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>45257</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44977.66061342593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>45350</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>45262</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>45681.42721064815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>45572.65831018519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>45664.44930555556</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>45323</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>45230</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>45546</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>45029.92474537037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         <v>44326</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>45728.53216435185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45880</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>45604.35761574074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>45188.45032407407</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>45818</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>45819.65800925926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>45819.67777777778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>45377.23140046297</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>45574.57387731481</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>45819.67783564814</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45641.89890046296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45884.34461805555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>45688.35956018518</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45484</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>44890</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>45323</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>45820.38512731482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>45187.69538194445</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45820.56695601852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>45324.43004629629</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>45699.85717592593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45824.6791087963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45769</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>45825.6278587963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>45797.51899305556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>45764.41936342593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45805.57412037037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44893.64318287037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>45379</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>45609</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         <v>45891.62828703703</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>45236</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>45827.43032407408</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>44950.35271990741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>45245</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>45890.42737268518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>45827.56239583333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45747.63582175926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19798,7 +19798,7 @@
         <v>45895.31371527778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19855,7 +19855,7 @@
         <v>45894.47574074074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         <v>45827</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19969,7 +19969,7 @@
         <v>45827.59447916667</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>45895</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>45894</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>45895.34462962963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20212,7 +20212,7 @@
         <v>45827</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20274,7 +20274,7 @@
         <v>45830</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20331,7 +20331,7 @@
         <v>45895.32181712963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>45831.65704861111</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
         <v>45700.60403935185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20502,7 +20502,7 @@
         <v>45894.47658564815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>45894.53157407408</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20616,7 +20616,7 @@
         <v>45641.89665509259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
         <v>45894.47443287037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>45642.36207175926</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20787,7 +20787,7 @@
         <v>45769.89828703704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20844,7 +20844,7 @@
         <v>45681</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20901,7 +20901,7 @@
         <v>45832.42759259259</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20958,7 +20958,7 @@
         <v>45897</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45097.93810185185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>45896.41564814815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>45896.42334490741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>45833.53407407407</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>45896.42896990741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45896.43145833333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>45897</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45897.63584490741</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>45503</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>45898</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>45832.59581018519</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21652,7 +21652,7 @@
         <v>45520</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21709,7 +21709,7 @@
         <v>45460</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45898.65670138889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>45043.94283564815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21890,7 +21890,7 @@
         <v>45898.45086805556</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45898</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45901.4696412037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>45559.51078703703</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>45834</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45461.37427083333</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45708.64608796296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>44848</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>45541.55353009259</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>45902.37390046296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45096</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45902.36240740741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45287.40711805555</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>45797.47197916666</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44685</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>45903.65680555555</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>45574.57422453703</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>45574.57452546297</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>45776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44615</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>45880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45559.49592592593</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45559.50427083333</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>45905.59465277778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45905.59467592592</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>45188</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>45904.63024305556</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>45457</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>45904.53165509259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45904.53173611111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>45635.63734953704</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>45904.57564814815</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23759,7 +23759,7 @@
         <v>45904.61912037037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23816,7 +23816,7 @@
         <v>45904.53167824074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
         <v>45904</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23930,7 +23930,7 @@
         <v>45904.58739583333</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23992,7 +23992,7 @@
         <v>45904</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>44756</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24106,7 +24106,7 @@
         <v>45904.53163194445</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
         <v>45837.69155092593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         <v>45840.59425925926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>45908.35325231482</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>45909.63577546296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>45908.32333333333</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45909.56523148148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45840</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24567,7 +24567,7 @@
         <v>45911.40783564815</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>45285.40332175926</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>45911.69847222222</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>45910.31901620371</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>45842</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>45911.40762731482</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>45911.34506944445</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>45911.34520833333</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>45911.40780092592</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>45915.55196759259</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>45915.44668981482</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45915.53155092592</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45685</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>45279</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45912.67767361111</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45618</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45618.46251157407</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45842</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25613,7 +25613,7 @@
         <v>45915.53157407408</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45914</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25727,7 +25727,7 @@
         <v>45912.60663194444</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>45912.60855324074</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>45912.36547453704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>45912.36555555555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>45912</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26022,7 +26022,7 @@
         <v>45912</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26084,7 +26084,7 @@
         <v>45912</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
         <v>45912.36561342593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>45849.46875</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26255,7 +26255,7 @@
         <v>45848.59751157407</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26317,7 +26317,7 @@
         <v>45917.40671296296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45916.5984837963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>45848</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>45848.41678240741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26555,7 +26555,7 @@
         <v>45848.79878472222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45849.34408564815</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26674,7 +26674,7 @@
         <v>45488.42760416667</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         <v>45916.45111111111</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>44355</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>45848.80690972223</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>45917.65427083334</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>45167.39181712963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>45919.34480324074</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         <v>44432</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>45334.3878125</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27202,7 +27202,7 @@
         <v>45919.46903935185</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27259,7 +27259,7 @@
         <v>45855.34423611111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>45919.34473379629</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>45244</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>45244</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27492,7 +27492,7 @@
         <v>45919.34576388889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27554,7 +27554,7 @@
         <v>45919.35890046296</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27611,7 +27611,7 @@
         <v>45799.60884259259</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27668,7 +27668,7 @@
         <v>45828.40693287037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         <v>45573.70684027778</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>45922.65756944445</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>45923</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>44383</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>44596.92112268518</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28020,7 +28020,7 @@
         <v>44623</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28077,7 +28077,7 @@
         <v>45922</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44588</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44879</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>45922.67793981481</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44722.56501157407</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44516</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44344</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44383</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44383</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44383</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44383</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44383</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>45922.76864583333</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44879.9275</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44775.92741898148</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44741</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44368</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44741</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>45531.40653935185</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29175,7 +29175,7 @@
         <v>45574.57420138889</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>45574.57457175926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>44687</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>44523</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>45863.42761574074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>44782</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45462</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45862.554375</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45924.34490740741</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>45925.60002314814</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>45925.60152777778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>45925.65667824074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45925.60075231481</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45925.34530092592</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>45924.34506944445</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>45925.56111111111</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>45769.64806712963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>45564</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>45925.59945601852</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>45924.55252314815</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>45924.34458333333</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30402,7 +30402,7 @@
         <v>45924.34474537037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30464,7 +30464,7 @@
         <v>44370</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30526,7 +30526,7 @@
         <v>45924.60710648148</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>45849.46329861111</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>45924.34524305556</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30707,7 +30707,7 @@
         <v>45924</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30764,7 +30764,7 @@
         <v>45925.34460648148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>45544</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>45924.61495370371</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45924.81440972222</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>45926.34545138889</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>45869.60490740741</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31126,7 +31126,7 @@
         <v>45929.64570601852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31188,7 +31188,7 @@
         <v>45926.40671296296</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31245,7 +31245,7 @@
         <v>45869.37787037037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31307,7 +31307,7 @@
         <v>45681</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31364,7 +31364,7 @@
         <v>45925.84547453704</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31421,7 +31421,7 @@
         <v>45929.64083333333</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         <v>45700.61891203704</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         <v>45926.34532407407</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31602,7 +31602,7 @@
         <v>45872.55440972222</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31659,7 +31659,7 @@
         <v>45653.38663194444</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31716,7 +31716,7 @@
         <v>45929.68081018519</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>45929.70978009259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>45810.4502199074</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>45929.63853009259</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31954,7 +31954,7 @@
         <v>45926.34465277778</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32016,7 +32016,7 @@
         <v>45873.40009259259</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32073,7 +32073,7 @@
         <v>45926.34493055556</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>45926.3659375</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32192,7 +32192,7 @@
         <v>45929.72967592593</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32249,7 +32249,7 @@
         <v>45642.36554398148</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>45607</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32363,7 +32363,7 @@
         <v>45873</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32420,7 +32420,7 @@
         <v>45873.59333333333</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32477,7 +32477,7 @@
         <v>45760.61570601852</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32534,7 +32534,7 @@
         <v>45872.58510416667</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32591,7 +32591,7 @@
         <v>45442.35251157408</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32648,7 +32648,7 @@
         <v>45930.55292824074</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>45678.63983796296</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32762,7 +32762,7 @@
         <v>45869.598125</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>45874.67835648148</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>45467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>45874.66177083334</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33010,7 +33010,7 @@
         <v>45688</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33072,7 +33072,7 @@
         <v>45932.34443287037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>45933.34452546296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33196,7 +33196,7 @@
         <v>45877.53163194445</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33253,7 +33253,7 @@
         <v>45197</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33310,7 +33310,7 @@
         <v>45880.61525462963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33367,7 +33367,7 @@
         <v>45244</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
         <v>45547.344375</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>45932.57424768519</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>45247</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>45775</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33667,7 +33667,7 @@
         <v>45225</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33724,7 +33724,7 @@
         <v>45880.61523148148</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33781,7 +33781,7 @@
         <v>45934.87321759259</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33838,7 +33838,7 @@
         <v>45934.88195601852</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>45935.34542824074</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         <v>45935.59422453704</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34019,7 +34019,7 @@
         <v>45934.34480324074</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34081,7 +34081,7 @@
         <v>45935.34520833333</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>45934.34547453704</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34205,7 +34205,7 @@
         <v>45935.34575231482</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34267,7 +34267,7 @@
         <v>44321</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34324,7 +34324,7 @@
         <v>45883.49185185185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34381,7 +34381,7 @@
         <v>45239</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34438,7 +34438,7 @@
         <v>45883.49172453704</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34495,7 +34495,7 @@
         <v>45883.49179398148</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34552,7 +34552,7 @@
         <v>45936.61523148148</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         <v>45883.46922453704</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34666,7 +34666,7 @@
         <v>45938.36506944444</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         <v>45098</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34785,7 +34785,7 @@
         <v>45938.34552083333</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>45938.34530092592</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34909,7 +34909,7 @@
         <v>45244</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
         <v>45883.36557870371</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35023,7 +35023,7 @@
         <v>45937.64141203704</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35080,7 +35080,7 @@
         <v>45919</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35137,7 +35137,7 @@
         <v>45281.434375</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
         <v>45942.49037037037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>45636.60680555556</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>45940.57060185185</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>45940.34592592593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35432,7 +35432,7 @@
         <v>45942.4903125</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35494,7 +35494,7 @@
         <v>45523</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35551,7 +35551,7 @@
         <v>45942.71923611111</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>44454</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
         <v>45940.34598379629</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35727,7 +35727,7 @@
         <v>45940.36502314815</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35784,7 +35784,7 @@
         <v>45940.55581018519</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35846,7 +35846,7 @@
         <v>45237.4725462963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35903,7 +35903,7 @@
         <v>45945</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35960,7 +35960,7 @@
         <v>45944.67363425926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36022,7 +36022,7 @@
         <v>45783</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36079,7 +36079,7 @@
         <v>45945.3653125</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36136,7 +36136,7 @@
         <v>45748.66990740741</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36193,7 +36193,7 @@
         <v>45837</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36250,7 +36250,7 @@
         <v>45945.29070601852</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36312,7 +36312,7 @@
         <v>45945.3859375</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36369,7 +36369,7 @@
         <v>45945.41836805556</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36426,7 +36426,7 @@
         <v>45375</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36483,7 +36483,7 @@
         <v>45376</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36540,7 +36540,7 @@
         <v>45945.39273148148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36597,7 +36597,7 @@
         <v>45945</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36654,7 +36654,7 @@
         <v>45945.36537037037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36711,7 +36711,7 @@
         <v>45098</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>45237</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>45946.67771990741</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>45324.46291666666</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36949,7 +36949,7 @@
         <v>45946</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37006,7 +37006,7 @@
         <v>44339</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37063,7 +37063,7 @@
         <v>45950.45288194445</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>45237.48104166667</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
         <v>44874</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37234,7 +37234,7 @@
         <v>45949.69255787037</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37291,7 +37291,7 @@
         <v>45950.38770833334</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37348,7 +37348,7 @@
         <v>45951.33339120371</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
         <v>45393</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37462,7 +37462,7 @@
         <v>44432</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37519,7 +37519,7 @@
         <v>44685</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37576,7 +37576,7 @@
         <v>45219.38791666667</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37638,7 +37638,7 @@
         <v>45376.92693287037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37695,7 +37695,7 @@
         <v>45953.72067129629</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37757,7 +37757,7 @@
         <v>45334</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37814,7 +37814,7 @@
         <v>45180.96025462963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37876,7 +37876,7 @@
         <v>44824</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37933,7 +37933,7 @@
         <v>44608</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37990,7 +37990,7 @@
         <v>45952</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38047,7 +38047,7 @@
         <v>45954.46243055556</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38104,7 +38104,7 @@
         <v>45957.65670138889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38161,7 +38161,7 @@
         <v>45954.65706018519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>45552</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>45957.65662037037</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>45955.34613425926</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>45714.34454861111</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>45954.67841435185</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>45955.34609953704</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38560,7 +38560,7 @@
         <v>45955.34616898148</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38617,7 +38617,7 @@
         <v>45955.34633101852</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38674,7 +38674,7 @@
         <v>45956</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>44917</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38798,7 +38798,7 @@
         <v>45954.67832175926</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38855,7 +38855,7 @@
         <v>45955</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38912,7 +38912,7 @@
         <v>45955.3462037037</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38969,7 +38969,7 @@
         <v>45955.34627314815</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         <v>45955.34628472223</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>45955.34635416666</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45642.34875</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39197,7 +39197,7 @@
         <v>45952</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39254,7 +39254,7 @@
         <v>45956</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
         <v>45954.34506944445</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39378,7 +39378,7 @@
         <v>45754.46898148148</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39435,7 +39435,7 @@
         <v>45955.34586805556</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39492,7 +39492,7 @@
         <v>45955</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>45955</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39606,7 +39606,7 @@
         <v>45956</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39668,7 +39668,7 @@
         <v>45954</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39725,7 +39725,7 @@
         <v>45954.65701388889</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39782,7 +39782,7 @@
         <v>45345</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39839,7 +39839,7 @@
         <v>45959.65199074074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39901,7 +39901,7 @@
         <v>45958</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39958,7 +39958,7 @@
         <v>45959.68377314815</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -40020,7 +40020,7 @@
         <v>45958.63005787037</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -40077,7 +40077,7 @@
         <v>45553</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40134,7 +40134,7 @@
         <v>45958.34296296296</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>45958.36559027778</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>45960.52788194444</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>45960.54111111111</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40367,7 +40367,7 @@
         <v>45960</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40424,7 +40424,7 @@
         <v>45419</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40481,7 +40481,7 @@
         <v>45551</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
         <v>45245</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40595,7 +40595,7 @@
         <v>45960.38133101852</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40652,7 +40652,7 @@
         <v>44944.47784722222</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40709,7 +40709,7 @@
         <v>45232.68149305556</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>45960.42349537037</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>45960</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>45478.92868055555</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>45271.92641203704</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>45964.42778935185</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45573.71189814815</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45631.49189814815</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45965.35112268518</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45021</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45966.38028935185</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45642.53783564815</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45966.33358796296</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45966.61532407408</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>44525</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41574,7 +41574,7 @@
         <v>45966.61511574074</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41636,7 +41636,7 @@
         <v>45574.47001157407</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41698,7 +41698,7 @@
         <v>45971.42768518518</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41755,7 +41755,7 @@
         <v>45971.54649305555</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>45971.58565972222</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>45968.64667824074</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41931,7 +41931,7 @@
         <v>45419.92640046297</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41988,7 +41988,7 @@
         <v>45139.60627314815</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42045,7 +42045,7 @@
         <v>45968.59075231481</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42107,7 +42107,7 @@
         <v>45972.61929398148</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42164,7 +42164,7 @@
         <v>45973</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         <v>45973</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>45625.37511574074</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>45972.58217592593</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>45972.63435185186</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>45097.92392361111</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>45974.32560185185</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>45975.59459490741</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>45975.61684027778</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>45974.53537037037</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>45978.345</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42801,7 +42801,7 @@
         <v>45265.59799768519</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42858,7 +42858,7 @@
         <v>45735</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42915,7 +42915,7 @@
         <v>45978</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42972,7 +42972,7 @@
         <v>45978</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43034,7 +43034,7 @@
         <v>45881</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43091,7 +43091,7 @@
         <v>45720</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43148,7 +43148,7 @@
         <v>45978.46653935185</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43205,7 +43205,7 @@
         <v>45596.31337962963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43267,7 +43267,7 @@
         <v>45266.64538194444</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43324,7 +43324,7 @@
         <v>45106</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43381,7 +43381,7 @@
         <v>45264.56266203704</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45175.41883101852</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45478.53690972222</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45793</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43609,7 +43609,7 @@
         <v>45239</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45981.53230324074</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43728,7 +43728,7 @@
         <v>45981.53223379629</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43785,7 +43785,7 @@
         <v>45981</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43842,7 +43842,7 @@
         <v>45981.51106481482</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43899,7 +43899,7 @@
         <v>45980.62547453704</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43961,7 +43961,7 @@
         <v>45980.88444444445</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -44018,7 +44018,7 @@
         <v>45747.63579861111</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44075,7 +44075,7 @@
         <v>45985.53171296296</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44132,7 +44132,7 @@
         <v>45985.36137731482</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44194,7 +44194,7 @@
         <v>45985.46179398148</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44251,7 +44251,7 @@
         <v>45982.42932870371</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44308,7 +44308,7 @@
         <v>45982</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44370,7 +44370,7 @@
         <v>45985.51115740741</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44427,7 +44427,7 @@
         <v>45985.53173611111</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44484,7 +44484,7 @@
         <v>45951</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44541,7 +44541,7 @@
         <v>45987</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44598,7 +44598,7 @@
         <v>45986.59315972222</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>44656</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>44550</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44774,7 +44774,7 @@
         <v>45986.38614583333</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44831,7 +44831,7 @@
         <v>45308</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44888,7 +44888,7 @@
         <v>45478.54922453704</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44945,7 +44945,7 @@
         <v>45478.55758101852</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -45002,7 +45002,7 @@
         <v>45695.62141203704</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45064,7 +45064,7 @@
         <v>45988</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45121,7 +45121,7 @@
         <v>45989.61618055555</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45178,7 +45178,7 @@
         <v>45029</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         <v>45035.92623842593</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45292,7 +45292,7 @@
         <v>45035</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45354,7 +45354,7 @@
         <v>45701</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45411,7 +45411,7 @@
         <v>45989</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45473,7 +45473,7 @@
         <v>45989.31907407408</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45535,7 +45535,7 @@
         <v>45989.53226851852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45592,7 +45592,7 @@
         <v>45988</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45649,7 +45649,7 @@
         <v>45574.44518518518</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45711,7 +45711,7 @@
         <v>45989</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45768,7 +45768,7 @@
         <v>45620</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>45188</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45887,7 +45887,7 @@
         <v>45478.54375</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45944,7 +45944,7 @@
         <v>45992.65481481481</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -46006,7 +46006,7 @@
         <v>45992</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46068,7 +46068,7 @@
         <v>45705</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         <v>45992.58547453704</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46182,7 +46182,7 @@
         <v>44280.9359375</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46244,7 +46244,7 @@
         <v>45993</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         <v>44761</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46363,7 +46363,7 @@
         <v>45726.83957175926</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>45356.9645949074</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>46036.38759259259</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46534,7 +46534,7 @@
         <v>46036.41863425926</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46591,7 +46591,7 @@
         <v>46036.39594907407</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46648,7 +46648,7 @@
         <v>46036.37460648148</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46705,7 +46705,7 @@
         <v>46036.38172453704</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46762,7 +46762,7 @@
         <v>46036.39217592592</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         <v>45993.93607638889</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46876,7 +46876,7 @@
         <v>45993.94271990741</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46933,7 +46933,7 @@
         <v>45160.30193287037</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46995,7 +46995,7 @@
         <v>45129.43409722222</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47052,7 +47052,7 @@
         <v>46036.39403935185</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47109,7 +47109,7 @@
         <v>45995.49049768518</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47166,7 +47166,7 @@
         <v>45541</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47223,7 +47223,7 @@
         <v>45278.52131944444</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>45995.49016203704</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>45995.4903587963</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45994.55259259259</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>45602.42299768519</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>45742</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         <v>45741</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47622,7 +47622,7 @@
         <v>45993.89900462963</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47679,7 +47679,7 @@
         <v>45995.49040509259</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47736,7 +47736,7 @@
         <v>45996.39519675926</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>45996.40296296297</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>45999</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>45618.47974537037</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47964,7 +47964,7 @@
         <v>45747.63590277778</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48021,7 +48021,7 @@
         <v>46038</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48078,7 +48078,7 @@
         <v>45999.43782407408</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48135,7 +48135,7 @@
         <v>44403.92158564815</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48192,7 +48192,7 @@
         <v>46034.40601851852</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48249,7 +48249,7 @@
         <v>45644.38747685185</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48306,7 +48306,7 @@
         <v>45677.53295138889</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48363,7 +48363,7 @@
         <v>46038</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48420,7 +48420,7 @@
         <v>45558.34508101852</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48482,7 +48482,7 @@
         <v>46042.57099537037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48539,7 +48539,7 @@
         <v>44960.59099537037</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48596,7 +48596,7 @@
         <v>46042.57371527778</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48653,7 +48653,7 @@
         <v>46042.57369212963</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48710,7 +48710,7 @@
         <v>46043.58481481481</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48767,7 +48767,7 @@
         <v>45618.9441087963</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48824,7 +48824,7 @@
         <v>45749</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48881,7 +48881,7 @@
         <v>45952</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48938,7 +48938,7 @@
         <v>46042.56331018519</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48995,7 +48995,7 @@
         <v>46042.56798611111</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49052,7 +49052,7 @@
         <v>45728.55405092592</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49114,7 +49114,7 @@
         <v>45664.47244212963</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49171,7 +49171,7 @@
         <v>46042.62847222222</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49228,7 +49228,7 @@
         <v>46000</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49285,7 +49285,7 @@
         <v>46043.60310185186</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49342,7 +49342,7 @@
         <v>46042.67135416667</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49399,7 +49399,7 @@
         <v>46002</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49461,7 +49461,7 @@
         <v>45688.35248842592</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49523,7 +49523,7 @@
         <v>45434</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49580,7 +49580,7 @@
         <v>46003</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49642,7 +49642,7 @@
         <v>46044.53945601852</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         <v>46045.44854166666</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49761,7 +49761,7 @@
         <v>46045.53174768519</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49823,7 +49823,7 @@
         <v>46044.54421296297</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49880,7 +49880,7 @@
         <v>45605.82144675926</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49937,7 +49937,7 @@
         <v>45202.69947916667</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49999,7 +49999,7 @@
         <v>45772.61418981481</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50056,7 +50056,7 @@
         <v>46002.55417824074</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50118,7 +50118,7 @@
         <v>45556.40655092592</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50180,7 +50180,7 @@
         <v>46049.57388888889</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50237,7 +50237,7 @@
         <v>46041</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50294,7 +50294,7 @@
         <v>46006</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50351,7 +50351,7 @@
         <v>46048.63616898148</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50408,7 +50408,7 @@
         <v>46048.64174768519</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50465,7 +50465,7 @@
         <v>46006.55324074074</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50522,7 +50522,7 @@
         <v>46006.59469907408</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50579,7 +50579,7 @@
         <v>46006.63680555556</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50636,7 +50636,7 @@
         <v>46006</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50693,7 +50693,7 @@
         <v>46006</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50750,7 +50750,7 @@
         <v>46048.61850694445</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50807,7 +50807,7 @@
         <v>46006.58561342592</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50864,7 +50864,7 @@
         <v>46006</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50921,7 +50921,7 @@
         <v>46048.57982638889</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50978,7 +50978,7 @@
         <v>46048.63378472222</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51035,7 +51035,7 @@
         <v>46006.65425925926</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51092,7 +51092,7 @@
         <v>46006</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51149,7 +51149,7 @@
         <v>46006</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         <v>45264</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51268,7 +51268,7 @@
         <v>44529</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51325,7 +51325,7 @@
         <v>45215</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51382,7 +51382,7 @@
         <v>45706.56214120371</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51444,7 +51444,7 @@
         <v>45427.36417824074</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51501,7 +51501,7 @@
         <v>45741.74234953704</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51558,7 +51558,7 @@
         <v>46008</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51620,7 +51620,7 @@
         <v>45930.55295138889</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51677,7 +51677,7 @@
         <v>44929.92539351852</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51734,7 +51734,7 @@
         <v>44929.92534722222</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51791,7 +51791,7 @@
         <v>45537</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51853,7 +51853,7 @@
         <v>45644.54944444444</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51910,7 +51910,7 @@
         <v>46051.40046296296</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51967,7 +51967,7 @@
         <v>44285</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         <v>46051.5984375</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52086,7 +52086,7 @@
         <v>45584.99240740741</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52143,7 +52143,7 @@
         <v>45585.00625</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52200,7 +52200,7 @@
         <v>45586.39534722222</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52257,7 +52257,7 @@
         <v>46008.45466435186</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52314,7 +52314,7 @@
         <v>46050.58539351852</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52371,7 +52371,7 @@
         <v>45260</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52428,7 +52428,7 @@
         <v>46008</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52490,7 +52490,7 @@
         <v>46008.55251157407</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52547,7 +52547,7 @@
         <v>46051.39359953703</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52604,7 +52604,7 @@
         <v>45617.37787037037</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52661,7 +52661,7 @@
         <v>45526.5687962963</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         <v>45202</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52780,7 +52780,7 @@
         <v>45601.59634259259</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52837,7 +52837,7 @@
         <v>45926</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52894,7 +52894,7 @@
         <v>45926</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>46010.39222222222</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53008,7 +53008,7 @@
         <v>46013.63587962963</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>46010.40876157407</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53122,7 +53122,7 @@
         <v>46055.42761574074</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53179,7 +53179,7 @@
         <v>45687.83862268519</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53236,7 +53236,7 @@
         <v>45926</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53293,7 +53293,7 @@
         <v>45484.94283564815</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53355,7 +53355,7 @@
         <v>46055.38869212963</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53412,7 +53412,7 @@
         <v>45114</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         <v>46013.63590277778</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53526,7 +53526,7 @@
         <v>46013.34729166667</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53583,7 +53583,7 @@
         <v>46055.4275462963</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53640,7 +53640,7 @@
         <v>45015</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53702,7 +53702,7 @@
         <v>45553.46583333334</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53759,7 +53759,7 @@
         <v>45285.40947916666</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53816,7 +53816,7 @@
         <v>45243.54659722222</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53878,7 +53878,7 @@
         <v>45243.57018518518</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53940,7 +53940,7 @@
         <v>44405.61335648148</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54002,7 +54002,7 @@
         <v>44817.83398148148</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54059,7 +54059,7 @@
         <v>44817.83875</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54116,7 +54116,7 @@
         <v>46057.49533564815</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54173,7 +54173,7 @@
         <v>46057.63611111111</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54230,7 +54230,7 @@
         <v>45936.44825231482</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54287,7 +54287,7 @@
         <v>45890</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54344,7 +54344,7 @@
         <v>45922.53164351852</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54401,7 +54401,7 @@
         <v>45916.34553240741</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54458,7 +54458,7 @@
         <v>45938.59431712963</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54515,7 +54515,7 @@
         <v>46058.3653125</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54572,7 +54572,7 @@
         <v>45936.42798611111</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54629,7 +54629,7 @@
         <v>45937.34538194445</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54686,7 +54686,7 @@
         <v>45951.38586805556</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54743,7 +54743,7 @@
         <v>45951.38597222222</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54800,7 +54800,7 @@
         <v>45951.3860300926</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54857,7 +54857,7 @@
         <v>45986.42760416667</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54914,7 +54914,7 @@
         <v>45987</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54971,7 +54971,7 @@
         <v>46058.42805555555</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55028,7 +55028,7 @@
         <v>46041</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55085,7 +55085,7 @@
         <v>45936.4080787037</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55142,7 +55142,7 @@
         <v>44539</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55204,7 +55204,7 @@
         <v>45936.44833333333</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55261,7 +55261,7 @@
         <v>45582.44790509259</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55323,7 +55323,7 @@
         <v>45915.55274305555</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55380,7 +55380,7 @@
         <v>45120</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55437,7 +55437,7 @@
         <v>45946.38613425926</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55494,7 +55494,7 @@
         <v>45120</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55551,7 +55551,7 @@
         <v>45936.40799768519</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55608,7 +55608,7 @@
         <v>45936.4278587963</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55665,7 +55665,7 @@
         <v>45936.42791666667</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55722,7 +55722,7 @@
         <v>45936.44826388889</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55779,7 +55779,7 @@
         <v>44468</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55836,7 +55836,7 @@
         <v>45578</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -55893,7 +55893,7 @@
         <v>44454</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55950,7 +55950,7 @@
         <v>45586.63030092593</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56012,7 +56012,7 @@
         <v>45586.41365740741</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56074,7 +56074,7 @@
         <v>45631.65880787037</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56131,7 +56131,7 @@
         <v>45546</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56193,7 +56193,7 @@
         <v>44984</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56250,7 +56250,7 @@
         <v>45681.44248842593</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56307,7 +56307,7 @@
         <v>45631</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56364,7 +56364,7 @@
         <v>45726.5940625</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56421,7 +56421,7 @@
         <v>45188</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56483,7 +56483,7 @@
         <v>45440.48613425926</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56540,7 +56540,7 @@
         <v>46064.47591435185</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56597,7 +56597,7 @@
         <v>45691.64054398148</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56659,7 +56659,7 @@
         <v>45419.43320601852</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56716,7 +56716,7 @@
         <v>45419.43966435185</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56773,7 +56773,7 @@
         <v>45545</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56835,7 +56835,7 @@
         <v>45545.34473379629</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -56897,7 +56897,7 @@
         <v>45688.68434027778</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56954,7 +56954,7 @@
         <v>45574.44390046296</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57016,7 +57016,7 @@
         <v>45574.45082175926</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57078,7 +57078,7 @@
         <v>45574.45609953703</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57140,7 +57140,7 @@
         <v>45579.58488425926</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57197,7 +57197,7 @@
         <v>45579</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57254,7 +57254,7 @@
         <v>45579.59833333334</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57311,7 +57311,7 @@
         <v>45579.60060185185</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57368,7 +57368,7 @@
         <v>45733.65648148148</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57425,7 +57425,7 @@
         <v>45222</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57482,7 +57482,7 @@
         <v>46068.90989583333</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57539,7 +57539,7 @@
         <v>44685</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57596,7 +57596,7 @@
         <v>45505.96447916667</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57658,7 +57658,7 @@
         <v>45677</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57715,7 +57715,7 @@
         <v>45726.66239583334</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57772,7 +57772,7 @@
         <v>45435</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -57829,7 +57829,7 @@
         <v>45630.66138888889</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -57886,7 +57886,7 @@
         <v>46031.5231712963</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -57943,7 +57943,7 @@
         <v>45600</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58005,7 +58005,7 @@
         <v>45239.54928240741</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58062,7 +58062,7 @@
         <v>45400.83166666667</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58119,7 +58119,7 @@
         <v>44942</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58176,7 +58176,7 @@
         <v>46036</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58233,7 +58233,7 @@
         <v>44813</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58290,7 +58290,7 @@
         <v>45504.41072916667</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58347,7 +58347,7 @@
         <v>45677.7190625</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58409,7 +58409,7 @@
         <v>45119.70763888889</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58471,7 +58471,7 @@
         <v>45559.4872337963</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58528,7 +58528,7 @@
         <v>45593</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58585,7 +58585,7 @@
         <v>45117.95149305555</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58647,7 +58647,7 @@
         <v>44890</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -58704,7 +58704,7 @@
         <v>45736</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -58761,7 +58761,7 @@
         <v>45401.92539351852</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -58818,7 +58818,7 @@
         <v>45273.58069444444</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -58875,7 +58875,7 @@
         <v>45187</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -58932,7 +58932,7 @@
         <v>45491.92767361111</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -58989,7 +58989,7 @@
         <v>44369.93850694445</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59051,7 +59051,7 @@
         <v>45245</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59108,7 +59108,7 @@
         <v>45527.33951388889</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59170,7 +59170,7 @@
         <v>45527</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59232,7 +59232,7 @@
         <v>45259.92872685185</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59289,7 +59289,7 @@
         <v>45098</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         <v>45639.39559027777</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59403,7 +59403,7 @@
         <v>45239</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59460,7 +59460,7 @@
         <v>45559.4780787037</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59517,7 +59517,7 @@
         <v>45370</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59574,7 +59574,7 @@
         <v>45664.58152777778</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59631,7 +59631,7 @@
         <v>45664</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -59688,7 +59688,7 @@
         <v>45603.35820601852</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -59745,7 +59745,7 @@
         <v>45708</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -59802,7 +59802,7 @@
         <v>44889</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -59864,7 +59864,7 @@
         <v>44785</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -59921,7 +59921,7 @@
         <v>45211.33572916667</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -59978,7 +59978,7 @@
         <v>45167</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -60040,7 +60040,7 @@
         <v>45090.92510416666</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -60097,7 +60097,7 @@
         <v>45586.63260416667</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60159,7 +60159,7 @@
         <v>45043.66952546296</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60216,7 +60216,7 @@
         <v>45607.3625462963</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60273,7 +60273,7 @@
         <v>45125</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60330,7 +60330,7 @@
         <v>45125</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60387,7 +60387,7 @@
         <v>45323</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60444,7 +60444,7 @@
         <v>45323</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60506,7 +60506,7 @@
         <v>45548</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60563,7 +60563,7 @@
         <v>44888</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -60620,7 +60620,7 @@
         <v>45478.53486111111</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -60677,7 +60677,7 @@
         <v>45478.54910879629</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -60734,7 +60734,7 @@
         <v>44622</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -60791,7 +60791,7 @@
         <v>45558</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -60848,7 +60848,7 @@
         <v>45566.29878472222</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -60910,7 +60910,7 @@
         <v>44942</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -60967,7 +60967,7 @@
         <v>45420</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -61024,7 +61024,7 @@
         <v>45610</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -61086,7 +61086,7 @@
         <v>45140</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -61148,7 +61148,7 @@
         <v>45218.52489583333</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -61210,7 +61210,7 @@
         <v>45627.84545138889</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -61267,7 +61267,7 @@
         <v>44658</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -61324,7 +61324,7 @@
         <v>45176</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -61381,7 +61381,7 @@
         <v>45273</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -61438,7 +61438,7 @@
         <v>44874</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -61500,7 +61500,7 @@
         <v>45238.92677083334</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -61557,7 +61557,7 @@
         <v>44971</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -61614,7 +61614,7 @@
         <v>44708</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -61671,7 +61671,7 @@
         <v>45596</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -61733,7 +61733,7 @@
         <v>45512.96141203704</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         <v>44447</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -61857,7 +61857,7 @@
         <v>45572.63810185185</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -61914,7 +61914,7 @@
         <v>45617.60194444445</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -61976,7 +61976,7 @@
         <v>44907.52800925926</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -62033,7 +62033,7 @@
         <v>45229</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -62095,7 +62095,7 @@
         <v>45091.44225694444</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -62152,7 +62152,7 @@
         <v>45273.63354166667</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -62209,7 +62209,7 @@
         <v>45232.56853009259</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -62271,7 +62271,7 @@
         <v>45331</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -62328,7 +62328,7 @@
         <v>45741.75050925926</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -62385,7 +62385,7 @@
         <v>45741.76587962963</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -62442,7 +62442,7 @@
         <v>45312</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -62499,7 +62499,7 @@
         <v>45316</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -62556,7 +62556,7 @@
         <v>45244</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -62613,7 +62613,7 @@
         <v>45056.93006944445</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -62670,7 +62670,7 @@
         <v>45056</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -62727,7 +62727,7 @@
         <v>44813</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -62784,7 +62784,7 @@
         <v>45525</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -62846,7 +62846,7 @@
         <v>45251</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -62903,7 +62903,7 @@
         <v>45708.46348379629</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -62960,7 +62960,7 @@
         <v>45254</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -63017,7 +63017,7 @@
         <v>45565.67741898148</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -63079,7 +63079,7 @@
         <v>44454</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -63136,7 +63136,7 @@
         <v>45646.50115740741</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -63193,7 +63193,7 @@
         <v>44972.32969907407</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -63250,7 +63250,7 @@
         <v>45687</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         <v>45687.82303240741</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -63364,7 +63364,7 @@
         <v>45755.34925925926</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -63421,7 +63421,7 @@
         <v>44375.93804398148</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -63483,7 +63483,7 @@
         <v>44377.92153935185</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -63540,7 +63540,7 @@
         <v>45518</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -63597,7 +63597,7 @@
         <v>44817.94883101852</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -63659,7 +63659,7 @@
         <v>45138</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -63716,7 +63716,7 @@
         <v>45028</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -63773,7 +63773,7 @@
         <v>45177.40446759259</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -63830,7 +63830,7 @@
         <v>45776.3900462963</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -63887,7 +63887,7 @@
         <v>45776.43038194445</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -63944,7 +63944,7 @@
         <v>45776.38480324074</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -64001,7 +64001,7 @@
         <v>45405.96737268518</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -64058,7 +64058,7 @@
         <v>45434.44953703704</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -64115,7 +64115,7 @@
         <v>45357.96129629629</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -64172,7 +64172,7 @@
         <v>45782.54247685185</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -64229,7 +64229,7 @@
         <v>45782.5971412037</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -64286,7 +64286,7 @@
         <v>45782.60648148148</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -64343,7 +64343,7 @@
         <v>45782.66539351852</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -64400,7 +64400,7 @@
         <v>45783.34435185185</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -64462,7 +64462,7 @@
         <v>45090</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -64519,7 +64519,7 @@
         <v>45462</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -64576,7 +64576,7 @@
         <v>45110</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -64633,7 +64633,7 @@
         <v>45315</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -64690,7 +64690,7 @@
         <v>45315.49657407407</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         <v>45789</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -64804,7 +64804,7 @@
         <v>45491.92782407408</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -64861,7 +64861,7 @@
         <v>45701.4969212963</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -64918,7 +64918,7 @@
         <v>45790</v>
       </c>
       <c r="C1055" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -64975,7 +64975,7 @@
         <v>45790</v>
       </c>
       <c r="C1056" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -65032,7 +65032,7 @@
         <v>45791</v>
       </c>
       <c r="C1057" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -65089,7 +65089,7 @@
         <v>45791.40768518519</v>
       </c>
       <c r="C1058" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -65146,7 +65146,7 @@
         <v>45141</v>
       </c>
       <c r="C1059" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -65203,7 +65203,7 @@
         <v>45790.65756944445</v>
       </c>
       <c r="C1060" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -65260,7 +65260,7 @@
         <v>44795</v>
       </c>
       <c r="C1061" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -65317,7 +65317,7 @@
         <v>44361</v>
       </c>
       <c r="C1062" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -65374,7 +65374,7 @@
         <v>45797.48444444445</v>
       </c>
       <c r="C1063" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -65431,7 +65431,7 @@
         <v>45219</v>
       </c>
       <c r="C1064" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -65488,7 +65488,7 @@
         <v>45313</v>
       </c>
       <c r="C1065" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -65545,7 +65545,7 @@
         <v>45631.71248842592</v>
       </c>
       <c r="C1066" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -65602,7 +65602,7 @@
         <v>45230</v>
       </c>
       <c r="C1067" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -65659,7 +65659,7 @@
         <v>44538</v>
       </c>
       <c r="C1068" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -65716,7 +65716,7 @@
         <v>45797.48927083334</v>
       </c>
       <c r="C1069" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -65773,7 +65773,7 @@
         <v>45796.3506712963</v>
       </c>
       <c r="C1070" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -65830,7 +65830,7 @@
         <v>45797.46248842592</v>
       </c>
       <c r="C1071" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -65887,7 +65887,7 @@
         <v>45799.34695601852</v>
       </c>
       <c r="C1072" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -65944,7 +65944,7 @@
         <v>45379</v>
       </c>
       <c r="C1073" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -66001,7 +66001,7 @@
         <v>45467</v>
       </c>
       <c r="C1074" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -66063,7 +66063,7 @@
         <v>45800.71913194445</v>
       </c>
       <c r="C1075" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -66125,7 +66125,7 @@
         <v>45804.59178240741</v>
       </c>
       <c r="C1076" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         <v>45347</v>
       </c>
       <c r="C1077" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -66244,7 +66244,7 @@
         <v>45804.34453703704</v>
       </c>
       <c r="C1078" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -66301,7 +66301,7 @@
         <v>45807.4705787037</v>
       </c>
       <c r="C1079" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -66358,7 +66358,7 @@
         <v>45553</v>
       </c>
       <c r="C1080" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -66415,7 +66415,7 @@
         <v>45585.7653587963</v>
       </c>
       <c r="C1081" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -66472,7 +66472,7 @@
         <v>44531.92215277778</v>
       </c>
       <c r="C1082" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -66529,7 +66529,7 @@
         <v>45811.63673611111</v>
       </c>
       <c r="C1083" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -66591,7 +66591,7 @@
         <v>45568.59442129629</v>
       </c>
       <c r="C1084" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -66648,7 +66648,7 @@
         <v>45813.65408564815</v>
       </c>
       <c r="C1085" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
